--- a/doc/01 概要设计/PSI概要设计.xlsx
+++ b/doc/01 概要设计/PSI概要设计.xlsx
@@ -9,13 +9,14 @@
   <sheets>
     <sheet name="概要设计" sheetId="1" r:id="rId1"/>
     <sheet name="总体技术架构" sheetId="4" r:id="rId2"/>
+    <sheet name="用户管理" sheetId="5" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>总体技术架构</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -465,6 +466,226 @@
         <charset val="134"/>
       </rPr>
       <t>前后台交互的基本流程示意</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Controller</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>\web\Application\Home\Controller\UserController.class.php</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Service</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>\web\Application\Home\Service\UserService.class.php</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>View</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>\web\Application\Home\View\User\login.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>\web\Application\Home\View\User\index.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>\web\Application\Home\View\User\changeMyPassword.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>视图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户登录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户管理主界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改我的密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>ER</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>关系简图</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>t_user</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>org_id</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>是外键，引用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>t_org</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>id</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>字段的值</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>t_org</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>和</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>t_user</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>是一对多的关系</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>用户密码目前使用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>md5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>来处理，密码安全强度不是很高</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -473,7 +694,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="9">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -539,6 +760,28 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -548,12 +791,27 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -566,17 +824,38 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1549,6 +1828,295 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="矩形 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1533525" y="3362325"/>
+          <a:ext cx="1514475" cy="895350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>组织机构</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>t_org</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="矩形 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4333875" y="3362325"/>
+          <a:ext cx="1514475" cy="895350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>用户</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>t_user</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>115888</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="直接连接符 4"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="2" idx="3"/>
+          <a:endCxn id="3" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3048000" y="3810000"/>
+          <a:ext cx="1285875" cy="1588"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="256160" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="TextBox 5"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3143250" y="3600450"/>
+          <a:ext cx="256160" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>1</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="254942" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="TextBox 6"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4010025" y="3619500"/>
+          <a:ext cx="254942" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>*</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
@@ -1834,7 +2402,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:C5"/>
+  <dimension ref="B2:D7"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1845,28 +2413,43 @@
     <col min="3" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" ht="35.25">
-      <c r="B2" s="3" t="s">
+    <row r="2" spans="2:4" ht="35.25">
+      <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="2:3">
+    <row r="3" spans="2:4">
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="2:3">
+    <row r="5" spans="2:4">
       <c r="B5" s="1">
         <v>1</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="3" t="s">
         <v>1</v>
       </c>
+      <c r="D5" s="3"/>
+    </row>
+    <row r="7" spans="2:4">
+      <c r="B7" s="1">
+        <v>2</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="4"/>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C7:D7"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="C5" location="总体技术架构!A1" display="总体技术架构"/>
+    <hyperlink ref="C7:D7" location="用户管理!A1" display="用户管理"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -1886,12 +2469,12 @@
     <col min="3" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" s="1" customFormat="1" ht="35.25">
-      <c r="B2" s="3" t="s">
+    <row r="2" spans="2:3" ht="35.25">
+      <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:3" s="1" customFormat="1">
+    <row r="3" spans="2:3">
       <c r="B3" s="1">
         <v>1</v>
       </c>
@@ -1899,12 +2482,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="2:3" s="1" customFormat="1">
+    <row r="4" spans="2:3">
       <c r="C4" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="2:3" s="1" customFormat="1">
+    <row r="6" spans="2:3">
       <c r="B6" s="1">
         <v>2</v>
       </c>
@@ -1912,22 +2495,22 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="2:3" s="1" customFormat="1">
+    <row r="7" spans="2:3">
       <c r="C7" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="2:3" s="1" customFormat="1">
+    <row r="8" spans="2:3">
       <c r="C8" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="2:3" s="1" customFormat="1">
+    <row r="9" spans="2:3">
       <c r="C9" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="2:3" s="1" customFormat="1">
+    <row r="11" spans="2:3">
       <c r="B11" s="1">
         <v>3</v>
       </c>
@@ -1935,7 +2518,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="2:3" s="1" customFormat="1">
+    <row r="13" spans="2:3">
       <c r="B13" s="1">
         <v>4</v>
       </c>
@@ -1943,12 +2526,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="2:3" s="1" customFormat="1">
+    <row r="14" spans="2:3">
       <c r="C14" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="2:3" s="1" customFormat="1">
+    <row r="17" spans="2:3">
       <c r="B17" s="1">
         <v>5</v>
       </c>
@@ -1961,4 +2544,172 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B2:M27"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="9" style="1"/>
+    <col min="2" max="2" width="5" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:13" ht="35.25">
+      <c r="B2" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="2:13">
+      <c r="B3" s="1">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="2:13">
+      <c r="C4" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="2:13">
+      <c r="B6" s="1">
+        <v>2</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13">
+      <c r="C7" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13">
+      <c r="B9" s="1">
+        <v>3</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13" ht="15.75">
+      <c r="C10" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="9"/>
+      <c r="M10" s="9"/>
+    </row>
+    <row r="11" spans="2:13">
+      <c r="C11" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="6"/>
+      <c r="M11" s="6"/>
+    </row>
+    <row r="12" spans="2:13">
+      <c r="C12" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="6"/>
+      <c r="M12" s="6"/>
+    </row>
+    <row r="13" spans="2:13">
+      <c r="C13" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="6"/>
+      <c r="M13" s="6"/>
+    </row>
+    <row r="15" spans="2:13">
+      <c r="B15" s="1">
+        <v>4</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3">
+      <c r="C23" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3">
+      <c r="C24" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3">
+      <c r="B26" s="1">
+        <v>5</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3">
+      <c r="C27" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="F10:M10"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="F11:M11"/>
+    <mergeCell ref="F12:M12"/>
+    <mergeCell ref="F13:M13"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/doc/01 概要设计/PSI概要设计.xlsx
+++ b/doc/01 概要设计/PSI概要设计.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <si>
     <t>总体技术架构</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -686,6 +686,380 @@
         <charset val="134"/>
       </rPr>
       <t>来处理，密码安全强度不是很高</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>关于</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>PSIBaseService</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>PSIBaseService</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>是</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>PSI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>中所有</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>Service</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的基类。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>PSIBaseService</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>中方法主要是返回操作的结果。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>他们返回的数据都是</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>PHP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>中的关联数组，之所以是关联数组，这是利用了</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>ThinkPHP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的一个特性：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>ThinkPHP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>Controller</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的方法</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>ajaxReturn</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>能把关联数组转化为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>JSON</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>对象。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>ok</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>方法，表示操作成功；</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>bad</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>方法表示操作失败。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>例如：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>PHP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>代码</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>ajaxReturn(array("success" =&gt; false, "msg" =&gt; "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>错误信息</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">")) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>生成</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>JSON</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>{"success": false, "msg": "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>错误信息</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>"}</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -834,20 +1208,14 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -855,8 +1223,14 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2427,19 +2801,19 @@
       <c r="B5" s="1">
         <v>1</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="3"/>
+      <c r="D5" s="4"/>
     </row>
     <row r="7" spans="2:4">
       <c r="B7" s="1">
         <v>2</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="4"/>
+      <c r="D7" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2458,7 +2832,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:C17"/>
+  <dimension ref="B2:C41"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -2539,10 +2913,49 @@
         <v>13</v>
       </c>
     </row>
+    <row r="35" spans="2:3">
+      <c r="B35" s="1">
+        <v>6</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3">
+      <c r="C36" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3">
+      <c r="C37" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3">
+      <c r="C38" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="39" spans="2:3">
+      <c r="C39" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="40" spans="2:3">
+      <c r="C40" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="41" spans="2:3">
+      <c r="C41" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -2599,72 +3012,72 @@
       </c>
     </row>
     <row r="10" spans="2:13" ht="15.75">
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="8" t="s">
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="9"/>
-      <c r="K10" s="9"/>
-      <c r="L10" s="9"/>
-      <c r="M10" s="9"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="7"/>
     </row>
     <row r="11" spans="2:13">
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="6" t="s">
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6"/>
-      <c r="K11" s="6"/>
-      <c r="L11" s="6"/>
-      <c r="M11" s="6"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="10"/>
+      <c r="L11" s="10"/>
+      <c r="M11" s="10"/>
     </row>
     <row r="12" spans="2:13">
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="6" t="s">
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
-      <c r="K12" s="6"/>
-      <c r="L12" s="6"/>
-      <c r="M12" s="6"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="10"/>
+      <c r="L12" s="10"/>
+      <c r="M12" s="10"/>
     </row>
     <row r="13" spans="2:13">
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="6" t="s">
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="6"/>
-      <c r="K13" s="6"/>
-      <c r="L13" s="6"/>
-      <c r="M13" s="6"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="10"/>
+      <c r="K13" s="10"/>
+      <c r="L13" s="10"/>
+      <c r="M13" s="10"/>
     </row>
     <row r="15" spans="2:13">
       <c r="B15" s="1">
@@ -2688,7 +3101,7 @@
       <c r="B26" s="1">
         <v>5</v>
       </c>
-      <c r="C26" s="10" t="s">
+      <c r="C26" s="3" t="s">
         <v>32</v>
       </c>
     </row>

--- a/doc/01 概要设计/PSI概要设计.xlsx
+++ b/doc/01 概要设计/PSI概要设计.xlsx
@@ -10,13 +10,14 @@
     <sheet name="概要设计" sheetId="1" r:id="rId1"/>
     <sheet name="总体技术架构" sheetId="4" r:id="rId2"/>
     <sheet name="用户管理" sheetId="5" r:id="rId3"/>
+    <sheet name="权限管理" sheetId="6" r:id="rId4"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="54">
   <si>
     <t>总体技术架构</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -37,8 +38,1024 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>本文档的描述</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
       <t>PSI</t>
     </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>各个模块的概要设计</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>PSI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>使用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>PHP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>来开发，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>PHP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>采用了</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>ThinkPHP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>框架。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>所以，掌握基本</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>ThinkPHP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>开发知识是做二次开发</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>PSI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的基础。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>数据库采用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>MySQL</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>代码中并没有使用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>ThinkPHP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>ORM</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>层，而是直接使用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>SQL</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>语句来完成所有的操作。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>使用的代码中尽量使用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>MySQL</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的原生方式和原生函数。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>PSI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>没有打算做到兼容多种数据库，所以这个既是缺点也是优点。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>PC</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>浏览器前端</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>UI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>采用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>ExtJS 4.2</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>移动浏览器端</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>UI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>采用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>jQuery Mobile</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>注：这块目前还在实验中</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>前后台交互的基本流程示意</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Controller</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>\web\Application\Home\Controller\UserController.class.php</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Service</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>\web\Application\Home\Service\UserService.class.php</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>View</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>\web\Application\Home\View\User\login.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>\web\Application\Home\View\User\index.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>\web\Application\Home\View\User\changeMyPassword.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>视图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户登录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户管理主界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改我的密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>ER</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>关系简图</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>t_user</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>org_id</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>是外键，引用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>t_org</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>id</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>字段的值</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>t_org</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>和</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>t_user</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>是一对多的关系</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>用户密码目前使用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>md5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>来处理，密码安全强度不是很高</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>关于</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>PSIBaseService</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>PSIBaseService</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>是</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>PSI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>中所有</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>Service</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的基类。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>PSIBaseService</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>中方法主要是返回操作的结果。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>他们返回的数据都是</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>PHP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>中的关联数组，之所以是关联数组，这是利用了</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>ThinkPHP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的一个特性：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>ThinkPHP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>Controller</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的方法</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>ajaxReturn</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>能把关联数组转化为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>JSON</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>对象。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>ok</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>方法，表示操作成功；</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>bad</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>方法表示操作失败。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>例如：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>PHP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>代码</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>ajaxReturn(array("success" =&gt; false, "msg" =&gt; "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>错误信息</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">")) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>生成</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>JSON</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>{"success": false, "msg": "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>错误信息</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>"}</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>权限管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>权限管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <rPr>
         <b/>
@@ -48,20 +1065,81 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
+      <t>开源进销存</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="26"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>PSI</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="26"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
       <t>概要设计</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>本文档的描述</t>
+    <t>\web\Application\Home\Controller\PermissionController.class.php</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Service</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>\web\Application\Home\Service\PermissionService.class.php</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>View</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>\web\Application\Home\View\Permission\index.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>权限管理主界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>ER</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>关系简图</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>角色和用户的关系是</t>
     </r>
     <r>
       <rPr>
@@ -70,6 +1148,74 @@
         <rFont val="Courier New"/>
         <family val="3"/>
       </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>对多</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>角色和权限的关系是</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>对多</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每个权限都有一个功能一一对应</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>每个功能，在</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
       <t>PSI</t>
     </r>
     <r>
@@ -77,26 +1223,10 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>各个模块的概要设计</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>PSI</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>使用</t>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>中均用一个</t>
     </r>
     <r>
       <rPr>
@@ -105,17 +1235,17 @@
         <rFont val="Courier New"/>
         <family val="3"/>
       </rPr>
-      <t>PHP</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>来开发，</t>
+      <t>fid</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>来表达，</t>
     </r>
     <r>
       <rPr>
@@ -124,942 +1254,17 @@
         <rFont val="Courier New"/>
         <family val="3"/>
       </rPr>
-      <t>PHP</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>采用了</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>ThinkPHP</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>框架。</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>所以，掌握基本</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>ThinkPHP</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>开发知识是做二次开发</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>PSI</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>的基础。</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>数据库采用</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>MySQL</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>。</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>代码中并没有使用</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>ThinkPHP</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>的</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>ORM</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>层，而是直接使用</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>SQL</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>语句来完成所有的操作。</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>使用的代码中尽量使用</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>MySQL</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>的原生方式和原生函数。</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>PSI</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>没有打算做到兼容多种数据库，所以这个既是缺点也是优点。</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>PC</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>浏览器前端</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>UI</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>采用</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>ExtJS 4.2</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>移动浏览器端</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>UI</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>采用</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>jQuery Mobile</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>注：这块目前还在实验中</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>前后台交互的基本流程示意</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户管理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户管理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Controller</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>\web\Application\Home\Controller\UserController.class.php</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Service</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>\web\Application\Home\Service\UserService.class.php</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>View</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>\web\Application\Home\View\User\login.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>\web\Application\Home\View\User\index.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>\web\Application\Home\View\User\changeMyPassword.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>视图</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>说明</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户登录</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户管理主界面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>修改我的密码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>ER</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>关系简图</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>t_user</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>的</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>org_id</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>是外键，引用</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>t_org</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>的</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>id</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>字段的值</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>t_org</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>和</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>t_user</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>是一对多的关系</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户密码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>用户密码目前使用</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>md5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>来处理，密码安全强度不是很高</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>关于</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>PSIBaseService</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>PSIBaseService</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>是</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>PSI</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>中所有</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>Service</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>的基类。</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>PSIBaseService</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>中方法主要是返回操作的结果。</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>他们返回的数据都是</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>PHP</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>中的关联数组，之所以是关联数组，这是利用了</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>ThinkPHP</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>的一个特性：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>ThinkPHP</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>的</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>Controller</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>的方法</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>ajaxReturn</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>能把关联数组转化为</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>JSON</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>对象。</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>ok</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>方法，表示操作成功；</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>bad</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>方法表示操作失败。</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>例如：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>PHP</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>代码</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>ajaxReturn(array("success" =&gt; false, "msg" =&gt; "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>错误信息</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">")) </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>生成</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>JSON</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>{"success": false, "msg": "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>错误信息</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>"}</t>
+      <t>fid</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>在整个系统中是唯一</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2483,6 +2688,1175 @@
             <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
             <a:t>*</a:t>
           </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="矩形 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4229100" y="3143250"/>
+          <a:ext cx="1514475" cy="895350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>角色</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>t_role</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="矩形 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7067550" y="3143250"/>
+          <a:ext cx="1514475" cy="895350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>角色对应的权限</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>t_role_permission</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="矩形 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1466850" y="3143250"/>
+          <a:ext cx="1514475" cy="895350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>角色对应的用户</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>t_role_user</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>87313</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="6" name="直接连接符 5"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="4" idx="3"/>
+          <a:endCxn id="2" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2981325" y="3590925"/>
+          <a:ext cx="1247775" cy="1588"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>87313</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="8" name="直接连接符 7"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="2" idx="3"/>
+          <a:endCxn id="3" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5743575" y="3590925"/>
+          <a:ext cx="1323975" cy="1588"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>638175</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="256160" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="TextBox 9"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5800725" y="3390900"/>
+          <a:ext cx="256160" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>1</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="254942" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="TextBox 10"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6810375" y="3409950"/>
+          <a:ext cx="254942" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>*</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="256160" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="TextBox 11"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3962400" y="3390900"/>
+          <a:ext cx="256160" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>1</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="254942" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="TextBox 12"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3038475" y="3419475"/>
+          <a:ext cx="254942" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>*</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="矩形 13"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1466850" y="4972050"/>
+          <a:ext cx="1514475" cy="895350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>用户</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>t_user</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>489744</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>153194</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>491332</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>134144</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="16" name="直接连接符 15"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="4" idx="2"/>
+          <a:endCxn id="14" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="1757363" y="4505325"/>
+          <a:ext cx="933450" cy="1588"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="256160" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="TextBox 16"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2181225" y="4095750"/>
+          <a:ext cx="256160" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>1</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="256160" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="TextBox 17"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2181225" y="4714875"/>
+          <a:ext cx="256160" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>1</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="矩形 18"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7067550" y="4876800"/>
+          <a:ext cx="1514475" cy="895350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>权限</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>t_permission</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>604044</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>153194</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>605632</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>38894</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="21" name="直接连接符 20"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="3" idx="2"/>
+          <a:endCxn id="19" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="7405688" y="4457700"/>
+          <a:ext cx="838200" cy="1588"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="256160" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="TextBox 22"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7791450" y="4067175"/>
+          <a:ext cx="256160" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>1</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="256160" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="TextBox 23"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7781925" y="4610100"/>
+          <a:ext cx="256160" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>1</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="25" name="矩形 24"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9363075" y="4876800"/>
+          <a:ext cx="1514475" cy="895350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>功能</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>(fid)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>t_fid</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>106363</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="27" name="直接连接符 26"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="19" idx="3"/>
+          <a:endCxn id="25" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8582025" y="5324475"/>
+          <a:ext cx="781050" cy="1588"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="256160" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="28" name="TextBox 27"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8562975" y="5114925"/>
+          <a:ext cx="256160" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>1</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="256160" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="29" name="TextBox 28"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9153525" y="5114925"/>
+          <a:ext cx="256160" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>1</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2776,7 +4150,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:D7"/>
+  <dimension ref="B2:D9"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2789,12 +4163,12 @@
   <sheetData>
     <row r="2" spans="2:4" ht="35.25">
       <c r="B2" s="2" t="s">
-        <v>2</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="2:4">
       <c r="B3" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="2:4">
@@ -2811,19 +4185,30 @@
         <v>2</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D7" s="5"/>
     </row>
+    <row r="9" spans="2:4">
+      <c r="B9" s="1">
+        <v>3</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9" s="5"/>
+    </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C9:D9"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="C5" location="总体技术架构!A1" display="总体技术架构"/>
     <hyperlink ref="C7:D7" location="用户管理!A1" display="用户管理"/>
+    <hyperlink ref="C9:D9" location="权限管理!A1" display="权限管理"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -2853,12 +4238,12 @@
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="2:3">
       <c r="C4" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="2:3">
@@ -2866,22 +4251,22 @@
         <v>2</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="2:3">
       <c r="C7" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="2:3">
       <c r="C8" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="2:3">
       <c r="C9" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="2:3">
@@ -2889,7 +4274,7 @@
         <v>3</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="2:3">
@@ -2897,12 +4282,12 @@
         <v>4</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="2:3">
       <c r="C14" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17" spans="2:3">
@@ -2910,7 +4295,7 @@
         <v>5</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="35" spans="2:3">
@@ -2918,37 +4303,37 @@
         <v>6</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="36" spans="2:3">
       <c r="C36" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="37" spans="2:3">
       <c r="C37" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="38" spans="2:3">
       <c r="C38" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="39" spans="2:3">
       <c r="C39" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="40" spans="2:3">
       <c r="C40" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="41" spans="2:3">
       <c r="C41" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -2974,7 +4359,7 @@
   <sheetData>
     <row r="2" spans="2:13" ht="35.25">
       <c r="B2" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="2:13">
@@ -2982,12 +4367,12 @@
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="2:13">
       <c r="C4" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="2:13">
@@ -2995,12 +4380,12 @@
         <v>2</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="2:13">
       <c r="C7" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="2:13">
@@ -3008,17 +4393,17 @@
         <v>3</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="2:13" ht="15.75">
       <c r="C10" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D10" s="7"/>
       <c r="E10" s="7"/>
       <c r="F10" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G10" s="7"/>
       <c r="H10" s="7"/>
@@ -3030,12 +4415,12 @@
     </row>
     <row r="11" spans="2:13">
       <c r="C11" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D11" s="9"/>
       <c r="E11" s="9"/>
       <c r="F11" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G11" s="10"/>
       <c r="H11" s="10"/>
@@ -3047,12 +4432,12 @@
     </row>
     <row r="12" spans="2:13">
       <c r="C12" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D12" s="9"/>
       <c r="E12" s="9"/>
       <c r="F12" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G12" s="10"/>
       <c r="H12" s="10"/>
@@ -3064,12 +4449,12 @@
     </row>
     <row r="13" spans="2:13">
       <c r="C13" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D13" s="9"/>
       <c r="E13" s="9"/>
       <c r="F13" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G13" s="10"/>
       <c r="H13" s="10"/>
@@ -3084,17 +4469,17 @@
         <v>4</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="23" spans="2:3">
       <c r="C23" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="24" spans="2:3">
       <c r="C24" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="26" spans="2:3">
@@ -3102,12 +4487,12 @@
         <v>5</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="27" spans="2:3">
       <c r="C27" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -3125,4 +4510,132 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B2:M35"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="9" style="1"/>
+    <col min="2" max="2" width="4.75" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:13" ht="35.25">
+      <c r="B2" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="2:13">
+      <c r="B3" s="1">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="2:13">
+      <c r="C4" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="2:13">
+      <c r="B6" s="1">
+        <v>2</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13">
+      <c r="C7" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13">
+      <c r="B9" s="1">
+        <v>3</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13" ht="15.75">
+      <c r="C10" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="7"/>
+    </row>
+    <row r="11" spans="2:13">
+      <c r="C11" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="10"/>
+      <c r="L11" s="10"/>
+      <c r="M11" s="10"/>
+    </row>
+    <row r="14" spans="2:13">
+      <c r="B14" s="1">
+        <v>4</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="32" spans="3:3">
+      <c r="C32" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="33" spans="3:3">
+      <c r="C33" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="34" spans="3:3">
+      <c r="C34" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="35" spans="3:3">
+      <c r="C35" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="F10:M10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="F11:M11"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/doc/01 概要设计/PSI概要设计.xlsx
+++ b/doc/01 概要设计/PSI概要设计.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="56">
   <si>
     <t>总体技术架构</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1265,6 +1265,23 @@
         <charset val="134"/>
       </rPr>
       <t>在整个系统中是唯一</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户看到的菜单是和权限管理的。当用户没有某个菜单的权限的时候，用户就看不见该菜单项。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>主页中的常用功能，也是如此。</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -4514,7 +4531,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:M35"/>
+  <dimension ref="B2:M38"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -4611,19 +4628,32 @@
         <v>50</v>
       </c>
     </row>
-    <row r="33" spans="3:3">
+    <row r="33" spans="2:3">
       <c r="C33" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="34" spans="3:3">
+    <row r="34" spans="2:3">
       <c r="C34" s="3" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="35" spans="3:3">
+    <row r="35" spans="2:3">
       <c r="C35" s="1" t="s">
         <v>53</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3">
+      <c r="B37" s="1">
+        <v>5</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3">
+      <c r="C38" s="1" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>

--- a/doc/01 概要设计/PSI概要设计.xlsx
+++ b/doc/01 概要设计/PSI概要设计.xlsx
@@ -395,47 +395,6 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>移动浏览器端</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>UI</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>采用</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>jQuery Mobile</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
       <t>注：这块目前还在实验中</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1282,6 +1241,47 @@
         <charset val="134"/>
       </rPr>
       <t>主页中的常用功能，也是如此。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>移动浏览器端</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>UI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>采用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>MUI(http://dcloudio.github.io/mui/)</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -4180,7 +4180,7 @@
   <sheetData>
     <row r="2" spans="2:4" ht="35.25">
       <c r="B2" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="2:4">
@@ -4202,7 +4202,7 @@
         <v>2</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D7" s="5"/>
     </row>
@@ -4211,7 +4211,7 @@
         <v>3</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D9" s="5"/>
     </row>
@@ -4299,12 +4299,12 @@
         <v>4</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>10</v>
+        <v>55</v>
       </c>
     </row>
     <row r="14" spans="2:3">
       <c r="C14" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="2:3">
@@ -4312,7 +4312,7 @@
         <v>5</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="35" spans="2:3">
@@ -4320,37 +4320,37 @@
         <v>6</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="36" spans="2:3">
       <c r="C36" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="37" spans="2:3">
       <c r="C37" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="38" spans="2:3">
       <c r="C38" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="39" spans="2:3">
       <c r="C39" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="40" spans="2:3">
       <c r="C40" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="41" spans="2:3">
       <c r="C41" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -4376,7 +4376,7 @@
   <sheetData>
     <row r="2" spans="2:13" ht="35.25">
       <c r="B2" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="2:13">
@@ -4384,12 +4384,12 @@
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="2:13">
       <c r="C4" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="2:13">
@@ -4397,12 +4397,12 @@
         <v>2</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="2:13">
       <c r="C7" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="2:13">
@@ -4410,17 +4410,17 @@
         <v>3</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="2:13" ht="15.75">
       <c r="C10" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D10" s="7"/>
       <c r="E10" s="7"/>
       <c r="F10" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G10" s="7"/>
       <c r="H10" s="7"/>
@@ -4432,12 +4432,12 @@
     </row>
     <row r="11" spans="2:13">
       <c r="C11" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D11" s="9"/>
       <c r="E11" s="9"/>
       <c r="F11" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G11" s="10"/>
       <c r="H11" s="10"/>
@@ -4449,12 +4449,12 @@
     </row>
     <row r="12" spans="2:13">
       <c r="C12" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D12" s="9"/>
       <c r="E12" s="9"/>
       <c r="F12" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G12" s="10"/>
       <c r="H12" s="10"/>
@@ -4466,12 +4466,12 @@
     </row>
     <row r="13" spans="2:13">
       <c r="C13" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D13" s="9"/>
       <c r="E13" s="9"/>
       <c r="F13" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G13" s="10"/>
       <c r="H13" s="10"/>
@@ -4486,17 +4486,17 @@
         <v>4</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="23" spans="2:3">
       <c r="C23" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="24" spans="2:3">
       <c r="C24" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="26" spans="2:3">
@@ -4504,12 +4504,12 @@
         <v>5</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="27" spans="2:3">
       <c r="C27" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -4544,7 +4544,7 @@
   <sheetData>
     <row r="2" spans="2:13" ht="35.25">
       <c r="B2" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="2:13">
@@ -4552,12 +4552,12 @@
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="2:13">
       <c r="C4" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="2:13">
@@ -4565,12 +4565,12 @@
         <v>2</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="2:13">
       <c r="C7" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="2:13">
@@ -4578,17 +4578,17 @@
         <v>3</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10" spans="2:13" ht="15.75">
       <c r="C10" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D10" s="7"/>
       <c r="E10" s="7"/>
       <c r="F10" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G10" s="7"/>
       <c r="H10" s="7"/>
@@ -4600,12 +4600,12 @@
     </row>
     <row r="11" spans="2:13">
       <c r="C11" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D11" s="9"/>
       <c r="E11" s="9"/>
       <c r="F11" s="10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G11" s="10"/>
       <c r="H11" s="10"/>
@@ -4620,27 +4620,27 @@
         <v>4</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="32" spans="3:3">
       <c r="C32" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="33" spans="2:3">
       <c r="C33" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="34" spans="2:3">
       <c r="C34" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="35" spans="2:3">
       <c r="C35" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="37" spans="2:3">
@@ -4648,12 +4648,12 @@
         <v>5</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="38" spans="2:3">
       <c r="C38" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>

--- a/doc/01 概要设计/PSI概要设计.xlsx
+++ b/doc/01 概要设计/PSI概要设计.xlsx
@@ -11,13 +11,14 @@
     <sheet name="总体技术架构" sheetId="4" r:id="rId2"/>
     <sheet name="用户管理" sheetId="5" r:id="rId3"/>
     <sheet name="权限管理" sheetId="6" r:id="rId4"/>
+    <sheet name="仓库" sheetId="7" r:id="rId5"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="67">
   <si>
     <t>总体技术架构</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1282,6 +1283,232 @@
         <family val="3"/>
       </rPr>
       <t>MUI(http://dcloudio.github.io/mui/)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基础数据 - 仓库</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基础数据 - 仓库</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>\web\Application\Home\Controller\WarehouseController.class.php</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>\web\Application\Home\Service\WarehouseService.class.php</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>\web\Application\Home\View\Warehouse\index.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>关于</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>t_warehouse_org</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的说明</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>t_warehouse_org</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>表的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>org_id</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>字段，既能存储</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>t_org</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>id</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，也能存储</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>t_user</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>id</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>说明</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>视图</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>仓库主界面</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>业务设置中有一项【仓库需指定组织机构】，当设置为需要的时候，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>t_warehouse_org</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>表里面才会存储数据。</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3843,6 +4070,733 @@
         <a:xfrm>
           <a:off x="9153525" y="5114925"/>
           <a:ext cx="256160" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>1</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="矩形 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1076325" y="2933700"/>
+          <a:ext cx="1514475" cy="895350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>仓库</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>t_warehouse</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="矩形 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3819525" y="2933700"/>
+          <a:ext cx="1514475" cy="895350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>仓库的操作员</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>t_warehouse_org</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="矩形 4"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6410325" y="2933700"/>
+          <a:ext cx="1514475" cy="895350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>组织机构</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>t_org</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="矩形 5"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5876925" y="4076700"/>
+          <a:ext cx="1514475" cy="895350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>用户</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>t_user</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>68263</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="14" name="直接连接符 13"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="3" idx="3"/>
+          <a:endCxn id="4" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2590800" y="3381375"/>
+          <a:ext cx="1228725" cy="1588"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>68263</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="16" name="直接连接符 15"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="4" idx="3"/>
+          <a:endCxn id="5" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5334000" y="3381375"/>
+          <a:ext cx="1076325" cy="1588"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>71439</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>133349</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>66674</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="18" name="直接连接符 17"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="4" idx="2"/>
+          <a:endCxn id="6" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="4879182" y="3526631"/>
+          <a:ext cx="695325" cy="1300162"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="256160" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="TextBox 18"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2638425" y="3181350"/>
+          <a:ext cx="256160" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>1</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="254942" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="TextBox 19"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3581400" y="3209925"/>
+          <a:ext cx="254942" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>*</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="256160" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="TextBox 20"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5381625" y="3171825"/>
+          <a:ext cx="256160" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>1</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="256160" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="TextBox 21"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6153150" y="3219450"/>
+          <a:ext cx="256160" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>1</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="256160" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="TextBox 22"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4591050" y="3867150"/>
+          <a:ext cx="256160" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>1</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="254942" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="TextBox 23"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5629275" y="4314825"/>
+          <a:ext cx="254942" cy="264560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4167,7 +5121,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:D9"/>
+  <dimension ref="B2:D11"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4215,17 +5169,28 @@
       </c>
       <c r="D9" s="5"/>
     </row>
+    <row r="11" spans="2:4">
+      <c r="B11" s="1">
+        <v>4</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D11" s="5"/>
+    </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C11:D11"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="C5" location="总体技术架构!A1" display="总体技术架构"/>
     <hyperlink ref="C7:D7" location="用户管理!A1" display="用户管理"/>
     <hyperlink ref="C9:D9" location="权限管理!A1" display="权限管理"/>
+    <hyperlink ref="C11:D11" location="仓库!A1" display="基础数据 - 仓库"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -4668,4 +5633,129 @@
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B2:M30"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="9" style="1"/>
+    <col min="2" max="2" width="5.125" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:13" ht="35.25">
+      <c r="B2" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="2:13">
+      <c r="B3" s="1">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="2:13">
+      <c r="C4" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="2:13">
+      <c r="B6" s="1">
+        <v>2</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13">
+      <c r="C7" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13">
+      <c r="B9" s="1">
+        <v>3</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13" ht="15.75">
+      <c r="C10" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="7"/>
+    </row>
+    <row r="11" spans="2:13">
+      <c r="C11" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="10"/>
+      <c r="L11" s="10"/>
+      <c r="M11" s="10"/>
+    </row>
+    <row r="13" spans="2:13">
+      <c r="B13" s="1">
+        <v>4</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3">
+      <c r="B28" s="1">
+        <v>5</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="29" spans="2:3">
+      <c r="C29" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="30" spans="2:3">
+      <c r="C30" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="F10:M10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="F11:M11"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/doc/01 概要设计/PSI概要设计.xlsx
+++ b/doc/01 概要设计/PSI概要设计.xlsx
@@ -12,13 +12,14 @@
     <sheet name="用户管理" sheetId="5" r:id="rId3"/>
     <sheet name="权限管理" sheetId="6" r:id="rId4"/>
     <sheet name="仓库" sheetId="7" r:id="rId5"/>
+    <sheet name="存货管理" sheetId="8" r:id="rId6"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="95">
   <si>
     <t>总体技术架构</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1510,6 +1511,423 @@
       </rPr>
       <t>表里面才会存储数据。</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>存货管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>存货管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>背景知识说明</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>这里写的是</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>“</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>存货管理</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>”</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，更多内容参见：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>http://baike.baidu.com/view/963664.htm</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>存货管理包含的内容相当丰富，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>PSI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>作为一个进销存系统，是先从</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>“</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>存</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>”</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>这个角度入手，再扩展到采购和销售。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>存货核算</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>存货核算的详细介绍参见：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>http://baike.baidu.com/view/569018.htm</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>PSI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>目前实现的存货核算方法</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>材料按实际价格核算，并用移动平均法计算直接成本。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>关于库存账</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更准确的词应该用“库存台账”，还不是会计上的“账”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">t_inventory_detail : </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>库存明细账</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">t_inventory </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>库存总账</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>称呼他们为总账和明细账，也是借用了会计总的总分类账和明细账的方法。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>从数据库的存储角度来看，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>t_inventory</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的数据在</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>t_inventory_detail</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>中都有，似乎是多余的，那它的意义在哪里呢？</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>答案是：的确是冗余数据表，但是对于后续的各种查询和统计报表的计算，提供了很多的方便。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>当数据量大的时候，这种冗余的优势就相当明显。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>为什么需要库存账</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>举一个早期做进销存常见的错误，就是没有库存账的情形</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>业务只有：采购入库和销售出库</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当需要计算利润的时候，程序代码就从采购入库单上去取商品成本。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>然后，业务开始增加外协加工入库和直接采购入库两种形式，这个时候，程序代码就需要修过成从这两种业务单据上去取商品成本。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>再然后。。。你懂得</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果加了库存账后是什么情况呢？见下图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>为什么“取商品成本的代码”这么重要？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当有新的业务，就对应新增单据，他们修改库存账。但是不影响“取商品成本的代码”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其实道理很简单，企业关心的是利润，如果连成本都算不准，那利润就不准。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>另外，上面说的“商品成本”这个词也不专业，是会意的一种表达。真正专业的讲解，需要看《成本会计》</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1614,7 +2032,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -1637,6 +2055,86 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1647,7 +2145,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1680,6 +2178,30 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4833,6 +5355,720 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="矩形 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4429125" y="6067425"/>
+          <a:ext cx="1638300" cy="1162050"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>库存账</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>（总账、明细账）</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="矩形 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1924050" y="5781675"/>
+          <a:ext cx="1638300" cy="657225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>采购入库</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="矩形 4"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6915150" y="5591175"/>
+          <a:ext cx="1638300" cy="657225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>销售出库</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="矩形 5"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1914525" y="7096125"/>
+          <a:ext cx="1638300" cy="657225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>采购退货</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="矩形 6"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7067550" y="6991350"/>
+          <a:ext cx="1638300" cy="657225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>销售退货</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="9" name="直接箭头连接符 8"/>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="2" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3619500" y="6067425"/>
+          <a:ext cx="809625" cy="581025"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>119063</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="11" name="直接箭头连接符 10"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="6" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3552825" y="6772275"/>
+          <a:ext cx="857250" cy="652463"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>138113</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="13" name="直接箭头连接符 12"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="5" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000" flipV="1">
+          <a:off x="6134100" y="5919788"/>
+          <a:ext cx="781050" cy="557212"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>47626</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>14289</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="15" name="直接箭头连接符 14"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="7" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="6096000" y="6781801"/>
+          <a:ext cx="971550" cy="538163"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="889987" cy="275717"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="TextBox 15"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3409950" y="6657975"/>
+          <a:ext cx="889987" cy="275717"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>修改库存账</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="889987" cy="275717"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="TextBox 16"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6257925" y="6505575"/>
+          <a:ext cx="889987" cy="275717"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>修改库存账</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="上箭头 17"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5124450" y="7934325"/>
+          <a:ext cx="342900" cy="590550"/>
+        </a:xfrm>
+        <a:prstGeom prst="upArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="矩形 18"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4514850" y="8562975"/>
+          <a:ext cx="1638300" cy="657225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>取商品成本的代码</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -5121,7 +6357,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:D11"/>
+  <dimension ref="B2:D13"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -5178,12 +6414,22 @@
       </c>
       <c r="D11" s="5"/>
     </row>
+    <row r="13" spans="2:4">
+      <c r="B13" s="1">
+        <v>5</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="D13" s="5"/>
+    </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="C9:D9"/>
     <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C13:D13"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -5191,6 +6437,7 @@
     <hyperlink ref="C7:D7" location="用户管理!A1" display="用户管理"/>
     <hyperlink ref="C9:D9" location="权限管理!A1" display="权限管理"/>
     <hyperlink ref="C11:D11" location="仓库!A1" display="基础数据 - 仓库"/>
+    <hyperlink ref="C13:D13" location="存货管理!A1" display="存货管理"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -5758,4 +7005,238 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B2:K54"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="9" style="1"/>
+    <col min="2" max="2" width="4.625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="5.125" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:3" ht="35.25">
+      <c r="B2" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3">
+      <c r="B3" s="1">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3">
+      <c r="C4" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3">
+      <c r="C5" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3">
+      <c r="B7" s="1">
+        <v>2</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3">
+      <c r="C8" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3">
+      <c r="B10" s="1">
+        <v>3</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3">
+      <c r="C11" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3">
+      <c r="B13" s="1">
+        <v>4</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3">
+      <c r="C14" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3">
+      <c r="C15" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3">
+      <c r="C16" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11">
+      <c r="C17" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11">
+      <c r="C18" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11">
+      <c r="C19" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11">
+      <c r="C20" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11">
+      <c r="B22" s="1">
+        <v>5</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="23" spans="2:11">
+      <c r="C23" s="1">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="24" spans="2:11">
+      <c r="D24" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="25" spans="2:11">
+      <c r="D25" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="26" spans="2:11">
+      <c r="D26" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="27" spans="2:11">
+      <c r="D27" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="28" spans="2:11">
+      <c r="C28" s="1">
+        <v>5.2</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="29" spans="2:11">
+      <c r="G29" s="12"/>
+      <c r="H29" s="13"/>
+      <c r="I29" s="14"/>
+      <c r="J29" s="15"/>
+      <c r="K29" s="11"/>
+    </row>
+    <row r="30" spans="2:11">
+      <c r="G30" s="12"/>
+      <c r="K30" s="11"/>
+    </row>
+    <row r="31" spans="2:11">
+      <c r="G31" s="12"/>
+      <c r="K31" s="11"/>
+    </row>
+    <row r="32" spans="2:11">
+      <c r="G32" s="12"/>
+      <c r="K32" s="11"/>
+    </row>
+    <row r="33" spans="7:11">
+      <c r="G33" s="12"/>
+      <c r="K33" s="11"/>
+    </row>
+    <row r="34" spans="7:11">
+      <c r="G34" s="12"/>
+      <c r="K34" s="11"/>
+    </row>
+    <row r="35" spans="7:11">
+      <c r="G35" s="12"/>
+      <c r="K35" s="11"/>
+    </row>
+    <row r="36" spans="7:11">
+      <c r="G36" s="12"/>
+      <c r="K36" s="11"/>
+    </row>
+    <row r="37" spans="7:11">
+      <c r="G37" s="12"/>
+      <c r="K37" s="11"/>
+    </row>
+    <row r="38" spans="7:11">
+      <c r="G38" s="12"/>
+      <c r="K38" s="11"/>
+    </row>
+    <row r="39" spans="7:11">
+      <c r="G39" s="12"/>
+      <c r="K39" s="11"/>
+    </row>
+    <row r="40" spans="7:11">
+      <c r="G40" s="12"/>
+      <c r="H40" s="16"/>
+      <c r="I40" s="17"/>
+      <c r="J40" s="18"/>
+      <c r="K40" s="11"/>
+    </row>
+    <row r="50" spans="2:5">
+      <c r="E50" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="52" spans="2:5">
+      <c r="B52" s="1">
+        <v>6</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="53" spans="2:5">
+      <c r="C53" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="54" spans="2:5">
+      <c r="C54" s="3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/doc/01 概要设计/PSI概要设计.xlsx
+++ b/doc/01 概要设计/PSI概要设计.xlsx
@@ -1796,19 +1796,6 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>称呼他们为总账和明细账，也是借用了会计总的总分类账和明细账的方法。</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
       <t>从数据库的存储角度来看，</t>
     </r>
     <r>
@@ -1928,6 +1915,10 @@
   </si>
   <si>
     <t>另外，上面说的“商品成本”这个词也不专业，是会意的一种表达。真正专业的讲解，需要看《成本会计》</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>称呼他们为总账和明细账，也是借用了会计中的总分类账和明细账的方法。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2158,27 +2149,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -2202,6 +2172,27 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -6382,46 +6373,46 @@
       <c r="B5" s="1">
         <v>1</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="4"/>
+      <c r="D5" s="12"/>
     </row>
     <row r="7" spans="2:4">
       <c r="B7" s="1">
         <v>2</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="5"/>
+      <c r="D7" s="13"/>
     </row>
     <row r="9" spans="2:4">
       <c r="B9" s="1">
         <v>3</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="D9" s="5"/>
+      <c r="D9" s="13"/>
     </row>
     <row r="11" spans="2:4">
       <c r="B11" s="1">
         <v>4</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="D11" s="5"/>
+      <c r="D11" s="13"/>
     </row>
     <row r="13" spans="2:4">
       <c r="B13" s="1">
         <v>5</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="D13" s="5"/>
+      <c r="D13" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -6626,72 +6617,72 @@
       </c>
     </row>
     <row r="10" spans="2:13" ht="15.75">
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="6" t="s">
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="7"/>
-      <c r="L10" s="7"/>
-      <c r="M10" s="7"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="15"/>
+      <c r="K10" s="15"/>
+      <c r="L10" s="15"/>
+      <c r="M10" s="15"/>
     </row>
     <row r="11" spans="2:13">
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="10" t="s">
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="10"/>
-      <c r="K11" s="10"/>
-      <c r="L11" s="10"/>
-      <c r="M11" s="10"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="18"/>
+      <c r="J11" s="18"/>
+      <c r="K11" s="18"/>
+      <c r="L11" s="18"/>
+      <c r="M11" s="18"/>
     </row>
     <row r="12" spans="2:13">
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="10" t="s">
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="10"/>
-      <c r="K12" s="10"/>
-      <c r="L12" s="10"/>
-      <c r="M12" s="10"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="18"/>
+      <c r="I12" s="18"/>
+      <c r="J12" s="18"/>
+      <c r="K12" s="18"/>
+      <c r="L12" s="18"/>
+      <c r="M12" s="18"/>
     </row>
     <row r="13" spans="2:13">
-      <c r="C13" s="8" t="s">
+      <c r="C13" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="10" t="s">
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="10"/>
-      <c r="K13" s="10"/>
-      <c r="L13" s="10"/>
-      <c r="M13" s="10"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="18"/>
+      <c r="I13" s="18"/>
+      <c r="J13" s="18"/>
+      <c r="K13" s="18"/>
+      <c r="L13" s="18"/>
+      <c r="M13" s="18"/>
     </row>
     <row r="15" spans="2:13">
       <c r="B15" s="1">
@@ -6794,38 +6785,38 @@
       </c>
     </row>
     <row r="10" spans="2:13" ht="15.75">
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="6" t="s">
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="7"/>
-      <c r="L10" s="7"/>
-      <c r="M10" s="7"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="15"/>
+      <c r="K10" s="15"/>
+      <c r="L10" s="15"/>
+      <c r="M10" s="15"/>
     </row>
     <row r="11" spans="2:13">
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="10" t="s">
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="10"/>
-      <c r="K11" s="10"/>
-      <c r="L11" s="10"/>
-      <c r="M11" s="10"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="18"/>
+      <c r="J11" s="18"/>
+      <c r="K11" s="18"/>
+      <c r="L11" s="18"/>
+      <c r="M11" s="18"/>
     </row>
     <row r="14" spans="2:13">
       <c r="B14" s="1">
@@ -6935,38 +6926,38 @@
       </c>
     </row>
     <row r="10" spans="2:13" ht="15.75">
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7" t="s">
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="7"/>
-      <c r="L10" s="7"/>
-      <c r="M10" s="7"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="15"/>
+      <c r="K10" s="15"/>
+      <c r="L10" s="15"/>
+      <c r="M10" s="15"/>
     </row>
     <row r="11" spans="2:13">
-      <c r="C11" s="9" t="s">
+      <c r="C11" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="10" t="s">
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="10"/>
-      <c r="K11" s="10"/>
-      <c r="L11" s="10"/>
-      <c r="M11" s="10"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="18"/>
+      <c r="J11" s="18"/>
+      <c r="K11" s="18"/>
+      <c r="L11" s="18"/>
+      <c r="M11" s="18"/>
     </row>
     <row r="13" spans="2:13">
       <c r="B13" s="1">
@@ -7094,23 +7085,23 @@
       </c>
     </row>
     <row r="17" spans="2:11">
-      <c r="C17" s="1" t="s">
-        <v>80</v>
+      <c r="C17" s="3" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="18" spans="2:11">
       <c r="C18" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="19" spans="2:11">
       <c r="C19" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="20" spans="2:11">
       <c r="C20" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="22" spans="2:11">
@@ -7118,7 +7109,7 @@
         <v>5</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="23" spans="2:11">
@@ -7126,27 +7117,27 @@
         <v>5.0999999999999996</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="24" spans="2:11">
       <c r="D24" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="25" spans="2:11">
       <c r="D25" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="26" spans="2:11">
       <c r="D26" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="27" spans="2:11">
       <c r="D27" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="28" spans="2:11">
@@ -7154,66 +7145,66 @@
         <v>5.2</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="29" spans="2:11">
-      <c r="G29" s="12"/>
-      <c r="H29" s="13"/>
-      <c r="I29" s="14"/>
-      <c r="J29" s="15"/>
-      <c r="K29" s="11"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="6"/>
+      <c r="I29" s="7"/>
+      <c r="J29" s="8"/>
+      <c r="K29" s="4"/>
     </row>
     <row r="30" spans="2:11">
-      <c r="G30" s="12"/>
-      <c r="K30" s="11"/>
+      <c r="G30" s="5"/>
+      <c r="K30" s="4"/>
     </row>
     <row r="31" spans="2:11">
-      <c r="G31" s="12"/>
-      <c r="K31" s="11"/>
+      <c r="G31" s="5"/>
+      <c r="K31" s="4"/>
     </row>
     <row r="32" spans="2:11">
-      <c r="G32" s="12"/>
-      <c r="K32" s="11"/>
+      <c r="G32" s="5"/>
+      <c r="K32" s="4"/>
     </row>
     <row r="33" spans="7:11">
-      <c r="G33" s="12"/>
-      <c r="K33" s="11"/>
+      <c r="G33" s="5"/>
+      <c r="K33" s="4"/>
     </row>
     <row r="34" spans="7:11">
-      <c r="G34" s="12"/>
-      <c r="K34" s="11"/>
+      <c r="G34" s="5"/>
+      <c r="K34" s="4"/>
     </row>
     <row r="35" spans="7:11">
-      <c r="G35" s="12"/>
-      <c r="K35" s="11"/>
+      <c r="G35" s="5"/>
+      <c r="K35" s="4"/>
     </row>
     <row r="36" spans="7:11">
-      <c r="G36" s="12"/>
-      <c r="K36" s="11"/>
+      <c r="G36" s="5"/>
+      <c r="K36" s="4"/>
     </row>
     <row r="37" spans="7:11">
-      <c r="G37" s="12"/>
-      <c r="K37" s="11"/>
+      <c r="G37" s="5"/>
+      <c r="K37" s="4"/>
     </row>
     <row r="38" spans="7:11">
-      <c r="G38" s="12"/>
-      <c r="K38" s="11"/>
+      <c r="G38" s="5"/>
+      <c r="K38" s="4"/>
     </row>
     <row r="39" spans="7:11">
-      <c r="G39" s="12"/>
-      <c r="K39" s="11"/>
+      <c r="G39" s="5"/>
+      <c r="K39" s="4"/>
     </row>
     <row r="40" spans="7:11">
-      <c r="G40" s="12"/>
-      <c r="H40" s="16"/>
-      <c r="I40" s="17"/>
-      <c r="J40" s="18"/>
-      <c r="K40" s="11"/>
+      <c r="G40" s="5"/>
+      <c r="H40" s="9"/>
+      <c r="I40" s="10"/>
+      <c r="J40" s="11"/>
+      <c r="K40" s="4"/>
     </row>
     <row r="50" spans="2:5">
       <c r="E50" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="52" spans="2:5">
@@ -7221,17 +7212,17 @@
         <v>6</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="53" spans="2:5">
       <c r="C53" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="54" spans="2:5">
       <c r="C54" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>

--- a/doc/01 概要设计/PSI概要设计.xlsx
+++ b/doc/01 概要设计/PSI概要设计.xlsx
@@ -1890,10 +1890,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>然后，业务开始增加外协加工入库和直接采购入库两种形式，这个时候，程序代码就需要修过成从这两种业务单据上去取商品成本。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>再然后。。。你懂得</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1919,6 +1915,10 @@
   </si>
   <si>
     <t>称呼他们为总账和明细账，也是借用了会计中的总分类账和明细账的方法。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>然后，业务开始增加外协加工入库和直接采购入库两种形式，这个时候，程序代码就需要修改成从这两种业务单据上去取商品成本。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -7086,7 +7086,7 @@
     </row>
     <row r="17" spans="2:11">
       <c r="C17" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="18" spans="2:11">
@@ -7132,12 +7132,12 @@
     </row>
     <row r="26" spans="2:11">
       <c r="D26" s="3" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
     </row>
     <row r="27" spans="2:11">
       <c r="D27" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="28" spans="2:11">
@@ -7145,7 +7145,7 @@
         <v>5.2</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="29" spans="2:11">
@@ -7204,7 +7204,7 @@
     </row>
     <row r="50" spans="2:5">
       <c r="E50" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="52" spans="2:5">
@@ -7212,17 +7212,17 @@
         <v>6</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="53" spans="2:5">
       <c r="C53" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="54" spans="2:5">
       <c r="C54" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>

--- a/doc/01 概要设计/PSI概要设计.xlsx
+++ b/doc/01 概要设计/PSI概要设计.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="98">
   <si>
     <t>总体技术架构</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1919,6 +1919,18 @@
   </si>
   <si>
     <t>然后，业务开始增加外协加工入库和直接采购入库两种形式，这个时候，程序代码就需要修改成从这两种业务单据上去取商品成本。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>现在库存账只有两个表，但是千万不用理解成靠这两个表就够了。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>举个稍微复杂点的例子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当商品按批次来管理的时候，就会出现“三级账”，也就现在的明细账下面还有一个明细账。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -7000,7 +7012,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:K54"/>
+  <dimension ref="B2:K58"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -7225,9 +7237,28 @@
         <v>92</v>
       </c>
     </row>
+    <row r="56" spans="2:5">
+      <c r="B56" s="1">
+        <v>7</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="57" spans="2:5">
+      <c r="C57" s="3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="58" spans="2:5">
+      <c r="C58" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/doc/01 概要设计/PSI概要设计.xlsx
+++ b/doc/01 概要设计/PSI概要设计.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="95">
   <si>
     <t>总体技术架构</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1310,139 +1310,6 @@
   <si>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>关于</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>t_warehouse_org</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>的说明</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>t_warehouse_org</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>表的</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>org_id</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>字段，既能存储</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>t_org</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>的</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>id</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>，也能存储</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>t_user</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>的</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>id</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
         <b/>
         <sz val="11"/>
         <color theme="1"/>
@@ -1478,38 +1345,6 @@
         <charset val="134"/>
       </rPr>
       <t>仓库主界面</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>业务设置中有一项【仓库需指定组织机构】，当设置为需要的时候，</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>t_warehouse_org</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>表里面才会存储数据。</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -4635,733 +4470,6 @@
 </file>
 
 <file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="矩形 2"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1076325" y="2933700"/>
-          <a:ext cx="1514475" cy="895350"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>仓库</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>t_warehouse</a:t>
-          </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="矩形 3"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3819525" y="2933700"/>
-          <a:ext cx="1514475" cy="895350"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>仓库的操作员</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>t_warehouse_org</a:t>
-          </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="矩形 4"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6410325" y="2933700"/>
-          <a:ext cx="1514475" cy="895350"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>组织机构</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>t_org</a:t>
-          </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="矩形 5"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5876925" y="4076700"/>
-          <a:ext cx="1514475" cy="895350"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>用户</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>t_user</a:t>
-          </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>68263</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="14" name="直接连接符 13"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="3" idx="3"/>
-          <a:endCxn id="4" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2590800" y="3381375"/>
-          <a:ext cx="1228725" cy="1588"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>68263</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="16" name="直接连接符 15"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="4" idx="3"/>
-          <a:endCxn id="5" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5334000" y="3381375"/>
-          <a:ext cx="1076325" cy="1588"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>71439</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>133349</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>66674</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="18" name="直接连接符 17"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="4" idx="2"/>
-          <a:endCxn id="6" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="16200000" flipH="1">
-          <a:off x="4879182" y="3526631"/>
-          <a:ext cx="695325" cy="1300162"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector2">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="256160" cy="264560"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="19" name="TextBox 18"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2638425" y="3181350"/>
-          <a:ext cx="256160" cy="264560"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr wrap="none" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>1</a:t>
-          </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>447675</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="254942" cy="264560"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="20" name="TextBox 19"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3581400" y="3209925"/>
-          <a:ext cx="254942" cy="264560"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr wrap="none" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>*</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="256160" cy="264560"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="21" name="TextBox 20"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5381625" y="3171825"/>
-          <a:ext cx="256160" cy="264560"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr wrap="none" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>1</a:t>
-          </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>276225</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="256160" cy="264560"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="22" name="TextBox 21"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6153150" y="3219450"/>
-          <a:ext cx="256160" cy="264560"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr wrap="none" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>1</a:t>
-          </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="256160" cy="264560"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="23" name="TextBox 22"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4591050" y="3867150"/>
-          <a:ext cx="256160" cy="264560"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr wrap="none" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>1</a:t>
-          </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>438150</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="254942" cy="264560"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="24" name="TextBox 23"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5629275" y="4314825"/>
-          <a:ext cx="254942" cy="264560"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr wrap="none" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>1</a:t>
-          </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -6422,7 +5530,7 @@
         <v>5</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D13" s="13"/>
     </row>
@@ -6748,7 +5856,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:M38"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" topLeftCell="A9" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -6887,7 +5995,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:M30"/>
+  <dimension ref="B2:M11"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -6939,12 +6047,12 @@
     </row>
     <row r="10" spans="2:13" ht="15.75">
       <c r="C10" s="15" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D10" s="15"/>
       <c r="E10" s="15"/>
       <c r="F10" s="15" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G10" s="15"/>
       <c r="H10" s="15"/>
@@ -6956,7 +6064,7 @@
     </row>
     <row r="11" spans="2:13">
       <c r="C11" s="17" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D11" s="17"/>
       <c r="E11" s="17"/>
@@ -6970,32 +6078,6 @@
       <c r="K11" s="18"/>
       <c r="L11" s="18"/>
       <c r="M11" s="18"/>
-    </row>
-    <row r="13" spans="2:13">
-      <c r="B13" s="1">
-        <v>4</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="28" spans="2:3">
-      <c r="B28" s="1">
-        <v>5</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="29" spans="2:3">
-      <c r="C29" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="30" spans="2:3">
-      <c r="C30" s="1" t="s">
-        <v>62</v>
-      </c>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -7006,7 +6088,6 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -7026,7 +6107,7 @@
   <sheetData>
     <row r="2" spans="2:3" ht="35.25">
       <c r="B2" s="2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="2:3">
@@ -7034,17 +6115,17 @@
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="2:3">
       <c r="C4" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="2:3">
       <c r="C5" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="7" spans="2:3">
@@ -7052,12 +6133,12 @@
         <v>2</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8" spans="2:3">
       <c r="C8" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="10" spans="2:3">
@@ -7065,12 +6146,12 @@
         <v>3</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="11" spans="2:3">
       <c r="C11" s="3" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="13" spans="2:3">
@@ -7078,42 +6159,42 @@
         <v>4</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="14" spans="2:3">
       <c r="C14" s="3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="15" spans="2:3">
       <c r="C15" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="16" spans="2:3">
       <c r="C16" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="17" spans="2:11">
       <c r="C17" s="3" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="18" spans="2:11">
       <c r="C18" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="19" spans="2:11">
       <c r="C19" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="20" spans="2:11">
       <c r="C20" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="22" spans="2:11">
@@ -7121,7 +6202,7 @@
         <v>5</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="23" spans="2:11">
@@ -7129,27 +6210,27 @@
         <v>5.0999999999999996</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="24" spans="2:11">
       <c r="D24" s="3" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="25" spans="2:11">
       <c r="D25" s="3" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="26" spans="2:11">
       <c r="D26" s="3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="27" spans="2:11">
       <c r="D27" s="3" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="28" spans="2:11">
@@ -7157,7 +6238,7 @@
         <v>5.2</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="29" spans="2:11">
@@ -7216,7 +6297,7 @@
     </row>
     <row r="50" spans="2:5">
       <c r="E50" s="3" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="52" spans="2:5">
@@ -7224,17 +6305,17 @@
         <v>6</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="53" spans="2:5">
       <c r="C53" s="3" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="54" spans="2:5">
       <c r="C54" s="3" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="56" spans="2:5">
@@ -7242,17 +6323,17 @@
         <v>7</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="57" spans="2:5">
       <c r="C57" s="3" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="58" spans="2:5">
       <c r="C58" s="3" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>

--- a/doc/01 概要设计/PSI概要设计.xlsx
+++ b/doc/01 概要设计/PSI概要设计.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="86">
   <si>
     <t>总体技术架构</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -40,6 +40,9 @@
   </si>
   <si>
     <r>
+      <t>PSI</t>
+    </r>
+    <r>
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
@@ -47,7 +50,7 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>本文档的描述</t>
+      <t>使用</t>
     </r>
     <r>
       <rPr>
@@ -56,6 +59,603 @@
         <rFont val="Courier New"/>
         <family val="3"/>
       </rPr>
+      <t>PHP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>来开发，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>PHP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>采用了</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>ThinkPHP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>框架。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>数据库采用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>MySQL</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>代码中并没有使用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>ThinkPHP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>ORM</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>层，而是直接使用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>SQL</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>语句来完成所有的操作。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>使用的代码中尽量使用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>MySQL</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的原生方式和原生函数。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>PC</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>浏览器前端</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>UI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>采用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>ExtJS 4.2</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>前后台交互的基本流程示意</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Controller</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>\web\Application\Home\Controller\UserController.class.php</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Service</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>\web\Application\Home\Service\UserService.class.php</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>View</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>\web\Application\Home\View\User\login.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>\web\Application\Home\View\User\index.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>\web\Application\Home\View\User\changeMyPassword.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>视图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户登录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户管理主界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改我的密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>ER</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>关系简图</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>t_user</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>org_id</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>是外键，引用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>t_org</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>id</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>字段的值</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>t_org</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>和</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>t_user</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>是一对多的关系</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>用户密码目前使用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>md5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>来处理，密码安全强度不是很高</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>权限管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>权限管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>\web\Application\Home\Controller\PermissionController.class.php</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Service</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>\web\Application\Home\Service\PermissionService.class.php</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>View</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>\web\Application\Home\View\Permission\index.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>权限管理主界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>ER</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>关系简图</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>角色和用户的关系是</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>对多</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>角色和权限的关系是</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>对多</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每个权限都有一个功能一一对应</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>每个功能，在</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
       <t>PSI</t>
     </r>
     <r>
@@ -63,15 +663,228 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>中均用一个</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>fid</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>来表达，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>fid</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>在整个系统中是唯一</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户看到的菜单是和权限管理的。当用户没有某个菜单的权限的时候，用户就看不见该菜单项。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>主页中的常用功能，也是如此。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基础数据 - 仓库</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基础数据 - 仓库</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>\web\Application\Home\Controller\WarehouseController.class.php</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>\web\Application\Home\Service\WarehouseService.class.php</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>\web\Application\Home\View\Warehouse\index.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>说明</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>视图</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>仓库主界面</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>存货管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>存货管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>各个模块的概要设计</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
+      <t>背景知识说明</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>这里写的是</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>“</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>存货管理</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>”</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，更多内容参见：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>http://baike.baidu.com/view/963664.htm</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>存货管理包含的内容相当丰富，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
       <t>PSI</t>
     </r>
     <r>
@@ -82,7 +895,7 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>使用</t>
+      <t>作为一个进销存系统，是先从</t>
     </r>
     <r>
       <rPr>
@@ -91,7 +904,7 @@
         <rFont val="Courier New"/>
         <family val="3"/>
       </rPr>
-      <t>PHP</t>
+      <t>“</t>
     </r>
     <r>
       <rPr>
@@ -101,7 +914,7 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>来开发，</t>
+      <t>存</t>
     </r>
     <r>
       <rPr>
@@ -110,7 +923,7 @@
         <rFont val="Courier New"/>
         <family val="3"/>
       </rPr>
-      <t>PHP</t>
+      <t>”</t>
     </r>
     <r>
       <rPr>
@@ -120,7 +933,33 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>采用了</t>
+      <t>这个角度入手，再扩展到采购和销售。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>存货核算</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>存货核算的详细介绍参见：</t>
     </r>
     <r>
       <rPr>
@@ -129,6 +968,303 @@
         <rFont val="Courier New"/>
         <family val="3"/>
       </rPr>
+      <t>http://baike.baidu.com/view/569018.htm</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>PSI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>目前实现的存货核算方法</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>材料按实际价格核算，并用移动平均法计算直接成本。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>关于库存账</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更准确的词应该用“库存台账”，还不是会计上的“账”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">t_inventory_detail : </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>库存明细账</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">t_inventory </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>库存总账</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>从数据库的存储角度来看，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>t_inventory</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的数据在</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>t_inventory_detail</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>中都有，似乎是多余的，那它的意义在哪里呢？</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>答案是：的确是冗余数据表，但是对于后续的各种查询和统计报表的计算，提供了很多的方便。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>当数据量大的时候，这种冗余的优势就相当明显。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>为什么需要库存账</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>举一个早期做进销存常见的错误，就是没有库存账的情形</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>业务只有：采购入库和销售出库</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当需要计算利润的时候，程序代码就从采购入库单上去取商品成本。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>再然后。。。你懂得</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果加了库存账后是什么情况呢？见下图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>为什么“取商品成本的代码”这么重要？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当有新的业务，就对应新增单据，他们修改库存账。但是不影响“取商品成本的代码”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其实道理很简单，企业关心的是利润，如果连成本都算不准，那利润就不准。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>另外，上面说的“商品成本”这个词也不专业，是会意的一种表达。真正专业的讲解，需要看《成本会计》</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>称呼他们为总账和明细账，也是借用了会计中的总分类账和明细账的方法。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>然后，业务开始增加外协加工入库和直接采购入库两种形式，这个时候，程序代码就需要修改成从这两种业务单据上去取商品成本。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>现在库存账只有两个表，但是千万不用理解成靠这两个表就够了。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>举个稍微复杂点的例子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当商品按批次来管理的时候，就会出现“三级账”，也就现在的明细账下面还有一个明细账。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>移动浏览器端</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>UI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>采用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>Material UI(https://material-ui.com/)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>掌握基本</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
       <t>ThinkPHP</t>
     </r>
     <r>
@@ -139,11 +1275,17 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>框架。</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
+      <t>开发知识是做二次开发</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>PSI</t>
+    </r>
     <r>
       <rPr>
         <sz val="11"/>
@@ -152,16 +1294,13 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>所以，掌握基本</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>ThinkPHP</t>
+      <t>的基础。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>PSI</t>
     </r>
     <r>
       <rPr>
@@ -171,849 +1310,8 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>开发知识是做二次开发</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>PSI</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>的基础。</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>数据库采用</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>MySQL</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>。</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>代码中并没有使用</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>ThinkPHP</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>的</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>ORM</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>层，而是直接使用</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>SQL</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>语句来完成所有的操作。</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>使用的代码中尽量使用</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>MySQL</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>的原生方式和原生函数。</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>PSI</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>没有打算做到兼容多种数据库，所以这个既是缺点也是优点。</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>PC</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>浏览器前端</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>UI</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>采用</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>ExtJS 4.2</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>注：这块目前还在实验中</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>前后台交互的基本流程示意</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户管理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户管理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Controller</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>\web\Application\Home\Controller\UserController.class.php</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Service</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>\web\Application\Home\Service\UserService.class.php</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>View</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>\web\Application\Home\View\User\login.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>\web\Application\Home\View\User\index.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>\web\Application\Home\View\User\changeMyPassword.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>视图</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>说明</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户登录</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户管理主界面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>修改我的密码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>ER</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>关系简图</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>t_user</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>的</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>org_id</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>是外键，引用</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>t_org</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>的</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>id</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>字段的值</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>t_org</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>和</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>t_user</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>是一对多的关系</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户密码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>用户密码目前使用</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>md5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>来处理，密码安全强度不是很高</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>关于</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>PSIBaseService</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>PSIBaseService</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>是</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>PSI</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>中所有</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>Service</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>的基类。</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>PSIBaseService</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>中方法主要是返回操作的结果。</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>他们返回的数据都是</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>PHP</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>中的关联数组，之所以是关联数组，这是利用了</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>ThinkPHP</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>的一个特性：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>ThinkPHP</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>的</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>Controller</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>的方法</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>ajaxReturn</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>能把关联数组转化为</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>JSON</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>对象。</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>ok</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>方法，表示操作成功；</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>bad</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>方法表示操作失败。</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>例如：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>PHP</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>代码</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>ajaxReturn(array("success" =&gt; false, "msg" =&gt; "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>错误信息</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">")) </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>生成</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>JSON</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>{"success": false, "msg": "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>错误信息</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>"}</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>权限管理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>权限管理</t>
+      <t>没有打算做到兼容多种数据库。</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1026,7 +1324,7 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>开源进销存</t>
+      <t>开源</t>
     </r>
     <r>
       <rPr>
@@ -1036,7 +1334,7 @@
         <rFont val="Courier New"/>
         <family val="3"/>
       </rPr>
-      <t>PSI</t>
+      <t>ERP PSI</t>
     </r>
     <r>
       <rPr>
@@ -1049,723 +1347,6 @@
       </rPr>
       <t>概要设计</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>\web\Application\Home\Controller\PermissionController.class.php</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Service</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>\web\Application\Home\Service\PermissionService.class.php</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>View</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>\web\Application\Home\View\Permission\index.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>权限管理主界面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>ER</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>关系简图</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>角色和用户的关系是</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>对多</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>角色和权限的关系是</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>对多</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>每个权限都有一个功能一一对应</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>每个功能，在</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>PSI</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>中均用一个</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>fid</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>来表达，</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>fid</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>在整个系统中是唯一</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户看到的菜单是和权限管理的。当用户没有某个菜单的权限的时候，用户就看不见该菜单项。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>主页中的常用功能，也是如此。</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>移动浏览器端</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>UI</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>采用</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>MUI(http://dcloudio.github.io/mui/)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>基础数据 - 仓库</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>基础数据 - 仓库</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>\web\Application\Home\Controller\WarehouseController.class.php</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>\web\Application\Home\Service\WarehouseService.class.php</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>\web\Application\Home\View\Warehouse\index.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>说明</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>视图</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>仓库主界面</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>存货管理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>存货管理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>背景知识说明</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>这里写的是</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>“</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>存货管理</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>”</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>，更多内容参见：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>http://baike.baidu.com/view/963664.htm</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>存货管理包含的内容相当丰富，</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>PSI</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>作为一个进销存系统，是先从</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>“</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>存</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>”</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>这个角度入手，再扩展到采购和销售。</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>存货核算</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>存货核算的详细介绍参见：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>http://baike.baidu.com/view/569018.htm</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>PSI</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>目前实现的存货核算方法</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>材料按实际价格核算，并用移动平均法计算直接成本。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>关于库存账</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>更准确的词应该用“库存台账”，还不是会计上的“账”</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">t_inventory_detail : </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>库存明细账</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">t_inventory </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>库存总账</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>从数据库的存储角度来看，</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>t_inventory</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>的数据在</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>t_inventory_detail</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>中都有，似乎是多余的，那它的意义在哪里呢？</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>答案是：的确是冗余数据表，但是对于后续的各种查询和统计报表的计算，提供了很多的方便。</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>当数据量大的时候，这种冗余的优势就相当明显。</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>为什么需要库存账</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>举一个早期做进销存常见的错误，就是没有库存账的情形</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>业务只有：采购入库和销售出库</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>当需要计算利润的时候，程序代码就从采购入库单上去取商品成本。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>再然后。。。你懂得</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>如果加了库存账后是什么情况呢？见下图</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>为什么“取商品成本的代码”这么重要？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>当有新的业务，就对应新增单据，他们修改库存账。但是不影响“取商品成本的代码”</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>其实道理很简单，企业关心的是利润，如果连成本都算不准，那利润就不准。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>另外，上面说的“商品成本”这个词也不专业，是会意的一种表达。真正专业的讲解，需要看《成本会计》</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>称呼他们为总账和明细账，也是借用了会计中的总分类账和明细账的方法。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>然后，业务开始增加外协加工入库和直接采购入库两种形式，这个时候，程序代码就需要修改成从这两种业务单据上去取商品成本。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>现在库存账只有两个表，但是千万不用理解成靠这两个表就够了。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>举个稍微复杂点的例子</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>当商品按批次来管理的时候，就会出现“三级账”，也就现在的明细账下面还有一个明细账。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2057,13 +1638,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>552450</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>1588</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2104,13 +1685,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>1588</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2151,13 +1732,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2228,13 +1809,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2292,13 +1873,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2353,6 +1934,18 @@
           </a:r>
           <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
         </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t>PSI DAO</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>层</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+        </a:p>
       </xdr:txBody>
     </xdr:sp>
     <xdr:clientData/>
@@ -2361,13 +1954,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>590550</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2423,13 +2016,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>276225</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>163513</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2470,13 +2063,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>190498</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>1588</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2517,13 +2110,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>590550</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>228602</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>9524</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2566,13 +2159,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>590550</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2647,13 +2240,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>628650</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>1588</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2694,7 +2287,7 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>78340</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="256160" cy="264560"/>
@@ -2747,7 +2340,7 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="256160" cy="264560"/>
@@ -2800,7 +2393,7 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>485775</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>78340</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="256160" cy="264560"/>
@@ -2853,7 +2446,7 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>466725</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="256160" cy="264560"/>
@@ -2906,7 +2499,7 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>657225</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="256160" cy="264560"/>
@@ -2959,7 +2552,7 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="256160" cy="264560"/>
@@ -5481,12 +5074,7 @@
   <sheetData>
     <row r="2" spans="2:4" ht="35.25">
       <c r="B2" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="3" spans="2:4">
-      <c r="B3" s="1" t="s">
-        <v>2</v>
+        <v>85</v>
       </c>
     </row>
     <row r="5" spans="2:4">
@@ -5503,7 +5091,7 @@
         <v>2</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D7" s="13"/>
     </row>
@@ -5512,7 +5100,7 @@
         <v>3</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="D9" s="13"/>
     </row>
@@ -5521,7 +5109,7 @@
         <v>4</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="D11" s="13"/>
     </row>
@@ -5530,7 +5118,7 @@
         <v>5</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="D13" s="13"/>
     </row>
@@ -5557,7 +5145,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:C41"/>
+  <dimension ref="B2:C15"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -5578,12 +5166,12 @@
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="2:3">
       <c r="C4" s="1" t="s">
-        <v>4</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6" spans="2:3">
@@ -5591,22 +5179,22 @@
         <v>2</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="2:3">
       <c r="C7" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="2:3">
       <c r="C8" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="2:3">
       <c r="C9" s="1" t="s">
-        <v>8</v>
+        <v>84</v>
       </c>
     </row>
     <row r="11" spans="2:3">
@@ -5614,7 +5202,7 @@
         <v>3</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="2:3">
@@ -5622,58 +5210,15 @@
         <v>4</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="14" spans="2:3">
-      <c r="C14" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" spans="2:3">
-      <c r="B17" s="1">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3">
+      <c r="B15" s="1">
         <v>5</v>
       </c>
-      <c r="C17" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="35" spans="2:3">
-      <c r="B35" s="1">
-        <v>6</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="36" spans="2:3">
-      <c r="C36" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="37" spans="2:3">
-      <c r="C37" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="38" spans="2:3">
-      <c r="C38" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="39" spans="2:3">
-      <c r="C39" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="40" spans="2:3">
-      <c r="C40" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="41" spans="2:3">
-      <c r="C41" s="1" t="s">
-        <v>38</v>
+      <c r="C15" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -5699,7 +5244,7 @@
   <sheetData>
     <row r="2" spans="2:13" ht="35.25">
       <c r="B2" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="2:13">
@@ -5707,12 +5252,12 @@
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="2:13">
       <c r="C4" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="2:13">
@@ -5720,12 +5265,12 @@
         <v>2</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="2:13">
       <c r="C7" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="2:13">
@@ -5733,17 +5278,17 @@
         <v>3</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="2:13" ht="15.75">
       <c r="C10" s="14" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D10" s="15"/>
       <c r="E10" s="15"/>
       <c r="F10" s="14" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="G10" s="15"/>
       <c r="H10" s="15"/>
@@ -5755,12 +5300,12 @@
     </row>
     <row r="11" spans="2:13">
       <c r="C11" s="16" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D11" s="17"/>
       <c r="E11" s="17"/>
       <c r="F11" s="18" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="G11" s="18"/>
       <c r="H11" s="18"/>
@@ -5772,12 +5317,12 @@
     </row>
     <row r="12" spans="2:13">
       <c r="C12" s="16" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D12" s="17"/>
       <c r="E12" s="17"/>
       <c r="F12" s="18" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="G12" s="18"/>
       <c r="H12" s="18"/>
@@ -5789,12 +5334,12 @@
     </row>
     <row r="13" spans="2:13">
       <c r="C13" s="16" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D13" s="17"/>
       <c r="E13" s="17"/>
       <c r="F13" s="18" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="G13" s="18"/>
       <c r="H13" s="18"/>
@@ -5809,17 +5354,17 @@
         <v>4</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="23" spans="2:3">
       <c r="C23" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="24" spans="2:3">
       <c r="C24" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="26" spans="2:3">
@@ -5827,12 +5372,12 @@
         <v>5</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="27" spans="2:3">
       <c r="C27" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -5867,7 +5412,7 @@
   <sheetData>
     <row r="2" spans="2:13" ht="35.25">
       <c r="B2" s="2" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="2:13">
@@ -5875,12 +5420,12 @@
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="2:13">
       <c r="C4" s="1" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="2:13">
@@ -5888,12 +5433,12 @@
         <v>2</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="2:13">
       <c r="C7" s="1" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="2:13">
@@ -5901,17 +5446,17 @@
         <v>3</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="2:13" ht="15.75">
       <c r="C10" s="14" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D10" s="15"/>
       <c r="E10" s="15"/>
       <c r="F10" s="14" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="G10" s="15"/>
       <c r="H10" s="15"/>
@@ -5923,12 +5468,12 @@
     </row>
     <row r="11" spans="2:13">
       <c r="C11" s="16" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="D11" s="17"/>
       <c r="E11" s="17"/>
       <c r="F11" s="18" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="G11" s="18"/>
       <c r="H11" s="18"/>
@@ -5943,27 +5488,27 @@
         <v>4</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
     </row>
     <row r="32" spans="3:3">
       <c r="C32" s="1" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
     </row>
     <row r="33" spans="2:3">
       <c r="C33" s="1" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
     </row>
     <row r="34" spans="2:3">
       <c r="C34" s="3" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
     </row>
     <row r="35" spans="2:3">
       <c r="C35" s="1" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
     </row>
     <row r="37" spans="2:3">
@@ -5971,12 +5516,12 @@
         <v>5</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
     </row>
     <row r="38" spans="2:3">
       <c r="C38" s="1" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -6008,7 +5553,7 @@
   <sheetData>
     <row r="2" spans="2:13" ht="35.25">
       <c r="B2" s="2" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="2:13">
@@ -6016,12 +5561,12 @@
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="2:13">
       <c r="C4" s="1" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="2:13">
@@ -6029,12 +5574,12 @@
         <v>2</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="2:13">
       <c r="C7" s="1" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="2:13">
@@ -6042,17 +5587,17 @@
         <v>3</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="2:13" ht="15.75">
       <c r="C10" s="15" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="D10" s="15"/>
       <c r="E10" s="15"/>
       <c r="F10" s="15" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="G10" s="15"/>
       <c r="H10" s="15"/>
@@ -6064,12 +5609,12 @@
     </row>
     <row r="11" spans="2:13">
       <c r="C11" s="17" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="D11" s="17"/>
       <c r="E11" s="17"/>
       <c r="F11" s="18" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="G11" s="18"/>
       <c r="H11" s="18"/>
@@ -6107,7 +5652,7 @@
   <sheetData>
     <row r="2" spans="2:3" ht="35.25">
       <c r="B2" s="2" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="2:3">
@@ -6115,17 +5660,17 @@
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="2:3">
       <c r="C4" s="1" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="2:3">
       <c r="C5" s="1" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="2:3">
@@ -6133,12 +5678,12 @@
         <v>2</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="2:3">
       <c r="C8" s="1" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="2:3">
@@ -6146,12 +5691,12 @@
         <v>3</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="2:3">
       <c r="C11" s="3" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
     </row>
     <row r="13" spans="2:3">
@@ -6159,42 +5704,42 @@
         <v>4</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
     </row>
     <row r="14" spans="2:3">
       <c r="C14" s="3" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
     </row>
     <row r="15" spans="2:3">
       <c r="C15" s="1" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
     </row>
     <row r="16" spans="2:3">
       <c r="C16" s="1" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
     </row>
     <row r="17" spans="2:11">
       <c r="C17" s="3" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
     </row>
     <row r="18" spans="2:11">
       <c r="C18" s="1" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
     </row>
     <row r="19" spans="2:11">
       <c r="C19" s="1" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
     </row>
     <row r="20" spans="2:11">
       <c r="C20" s="1" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
     </row>
     <row r="22" spans="2:11">
@@ -6202,7 +5747,7 @@
         <v>5</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
     </row>
     <row r="23" spans="2:11">
@@ -6210,27 +5755,27 @@
         <v>5.0999999999999996</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
     </row>
     <row r="24" spans="2:11">
       <c r="D24" s="3" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
     </row>
     <row r="25" spans="2:11">
       <c r="D25" s="3" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
     </row>
     <row r="26" spans="2:11">
       <c r="D26" s="3" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
     </row>
     <row r="27" spans="2:11">
       <c r="D27" s="3" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
     </row>
     <row r="28" spans="2:11">
@@ -6238,7 +5783,7 @@
         <v>5.2</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
     </row>
     <row r="29" spans="2:11">
@@ -6297,7 +5842,7 @@
     </row>
     <row r="50" spans="2:5">
       <c r="E50" s="3" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
     </row>
     <row r="52" spans="2:5">
@@ -6305,17 +5850,17 @@
         <v>6</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
     </row>
     <row r="53" spans="2:5">
       <c r="C53" s="3" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
     </row>
     <row r="54" spans="2:5">
       <c r="C54" s="3" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
     </row>
     <row r="56" spans="2:5">
@@ -6323,17 +5868,17 @@
         <v>7</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
     </row>
     <row r="57" spans="2:5">
       <c r="C57" s="3" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
     </row>
     <row r="58" spans="2:5">
       <c r="C58" s="3" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
